--- a/downloads/exportExcelInternalJObFilter1.xlsx
+++ b/downloads/exportExcelInternalJObFilter1.xlsx
@@ -85,7 +85,7 @@
     <t>In progressDX</t>
   </si>
   <si>
-    <t>J-652</t>
+    <t>J-665</t>
   </si>
   <si>
     <t>9863574112</t>
